--- a/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_33.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_33.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI World_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI World_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI World_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI World_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI World_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI World_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI World_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI World_두바이유가</t>
   </si>
   <si>
-    <t>MSCI World_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI World_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI World_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI World_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI World_미국 REER</t>
   </si>
   <si>
-    <t>MSCI World_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI World_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI World_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI World_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI World_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI World_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI World_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI World_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI World_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI World_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI World_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI World_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI World_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI World_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 REER</t>
   </si>
   <si>
-    <t>MSCI World_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI World_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI World_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI World_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI World_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,2561 +1893,2261 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:250">
+      <c r="A4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:275">
-      <c r="A4" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="B4" t="n">
-        <v>-0.9304476094475882</v>
+        <v>-0.9346126916315247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8715467533870423</v>
+        <v>0.9373315537443744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9056453834933351</v>
+        <v>0.7949724754099029</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8688447863610357</v>
+        <v>0.8947552409822951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6577317116219811</v>
+        <v>0.5779344357676922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5347618195512859</v>
+        <v>-0.249753632307385</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9555738903980783</v>
+        <v>0.9588899098013801</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9510037512801134</v>
+        <v>0.9418746261223909</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9442544204650032</v>
+        <v>0.6697060247873221</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9530576716836803</v>
+        <v>0.3794941226618392</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9188329693068059</v>
+        <v>-0.5304890309305826</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8797239713232776</v>
+        <v>0.9628491549192973</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9101957928536762</v>
+        <v>-0.8091864114795703</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9118489299848604</v>
+        <v>0.9046984401095074</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3253331371449322</v>
+        <v>0.8446655014173614</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5759046755488291</v>
+        <v>0.8913366255044916</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8079398405552679</v>
+        <v>0.6470118443238672</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9235166590247662</v>
+        <v>0.747454710937283</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8443143026770075</v>
+        <v>-0.6802215040253419</v>
       </c>
       <c r="U4" t="n">
-        <v>0.878168149551398</v>
+        <v>0.8980530780892613</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7852305298967442</v>
+        <v>0.5010022586577699</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7900869926017362</v>
+        <v>0.9278824331715301</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6410290660107191</v>
+        <v>0.8776796435866525</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.629370403011534</v>
+        <v>-0.150474090230549</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.724244643605054</v>
+        <v>0.8871110541507948</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8887651110928502</v>
+        <v>0.6890428234470348</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4912796748269243</v>
+        <v>0.9174235384144457</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9237321251502454</v>
+        <v>0.671540246776401</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8478836646812566</v>
+        <v>0.9483747933018355</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1037999123524944</v>
+        <v>0.7540352086865098</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8741557548218573</v>
+        <v>0.6835045031370942</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5784343974701184</v>
+        <v>0.5732762230113549</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9176704146514463</v>
+        <v>-0.2804677262501069</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6228938042912111</v>
+        <v>0.9465798447627819</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.93874708990113</v>
+        <v>-0.06607896110874349</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6819561457195407</v>
+        <v>0.8767043999066244</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4500823742265092</v>
+        <v>-0.05472234135850462</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6759583068494944</v>
+        <v>-0.5635965972296153</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.3120710980511056</v>
+        <v>-0.7827347966890728</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9677763805302112</v>
+        <v>0.9655131961795443</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3524719746242497</v>
+        <v>0.2335222413507375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9228484664419114</v>
+        <v>-0.8051667240581774</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3198016307955048</v>
+        <v>-0.6238551734607705</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.3466509927037164</v>
+        <v>0.984975468299388</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7905206677130533</v>
+        <v>0.9994053232720965</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.958202522852741</v>
+        <v>0.9970567187552342</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.105119862604789</v>
+        <v>0.9760656542470419</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7881189246194799</v>
+        <v>0.9747984752580336</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7413882583059253</v>
+        <v>0.9850118727016489</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9892663851332509</v>
+        <v>1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9997009227623351</v>
+        <v>0.9950502154963405</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9965537126066734</v>
+        <v>0.9790975935817232</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.975303623813853</v>
+        <v>0.9286969276820377</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9875942361324314</v>
+        <v>0.8949940747889399</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9892262738543347</v>
+        <v>0.7962026013110673</v>
       </c>
       <c r="BE4" t="n">
-        <v>1</v>
+        <v>0.1004292179408162</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9944938999010784</v>
+        <v>0.9000296572709134</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9625894559474603</v>
+        <v>0.1040240572749651</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8741807025578612</v>
+        <v>0.8578607492068682</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8849890048381018</v>
+        <v>0.06258027831205736</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7303227884080434</v>
+        <v>0.8904138595061143</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.2419908764627231</v>
+        <v>0.8933632857390919</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1985950548070055</v>
+        <v>0.5371224475738874</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.90202034957503</v>
+        <v>-0.5498122216296925</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8839950412243323</v>
+        <v>0.9953962580726462</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9306869061144585</v>
+        <v>0.8779891516459223</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3662138967001483</v>
+        <v>0.9891586890755979</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8584656607289797</v>
+        <v>0.5162927413479923</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1391992082828862</v>
+        <v>0.9746326209187113</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8723785447054861</v>
+        <v>0.9096870117163981</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.857942393220391</v>
+        <v>0.3950535390978198</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5615052091286313</v>
+        <v>0.8350586224913705</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3667916446230358</v>
+        <v>0.8097492953747701</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9904881170145446</v>
+        <v>0.8157397950668012</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9059302234539907</v>
+        <v>-0.7513458805626577</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9861609016799332</v>
+        <v>-0.2093331404839182</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7730890635757074</v>
+        <v>0.6486266003462545</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9767533224003881</v>
+        <v>0.9192556049052127</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8944740306291463</v>
+        <v>0.877405600566857</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.4982753774225152</v>
+        <v>0.7714614984649277</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8764207028709035</v>
+        <v>0.3261889129452077</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.7520487243083599</v>
+        <v>0.697090195584858</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8002228888864512</v>
+        <v>0.7858523436026259</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.868561499875512</v>
+        <v>-0.4522065551752447</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.3195495256345957</v>
+        <v>0.8613619918876352</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.3858615360730748</v>
+        <v>0.3147160177702518</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8592288597269</v>
+        <v>-0.2036961422672163</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8106022412896504</v>
+        <v>0.188810463427933</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.6800760414059891</v>
+        <v>-0.2152827674205388</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4144225467520773</v>
+        <v>0.4233800035216145</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7560830171904656</v>
+        <v>0.967594512079448</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7556703418966708</v>
+        <v>-0.5831857412080675</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6346061079492226</v>
+        <v>0.9154663402706243</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8230253403278147</v>
+        <v>0.9637459900887417</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.3816701656271771</v>
+        <v>-0.6440649595967507</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1926045928512794</v>
+        <v>0.9574389836427105</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.2771475558317518</v>
+        <v>0.5824473697824305</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2178387640946075</v>
+        <v>0.9122734764043234</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.4838818559401339</v>
+        <v>0.9202940582337611</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9360786865808135</v>
+        <v>0.8961061400547569</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3925714542052038</v>
+        <v>0.907155149910976</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.6285158962574916</v>
+        <v>-0.6639598259677301</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9410516335810687</v>
+        <v>0.830466519112891</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.4925455127576682</v>
+        <v>0.6044472467501143</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9399440602145295</v>
+        <v>0.9322412591754217</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5812905006966173</v>
+        <v>-0.5573416605597041</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8962441667613162</v>
+        <v>0.6438706185999193</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.906740455615467</v>
+        <v>0.7830256202524756</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.86783632364563</v>
+        <v>0.2280386692134209</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9144474877831661</v>
+        <v>0.9012324076460702</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6296906067770851</v>
+        <v>-0.3620765125778276</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7607022598904069</v>
+        <v>0.819734882870778</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.3687143275279915</v>
+        <v>-0.5779564776317038</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9065996359918477</v>
+        <v>0.5169398394054263</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6767609938260206</v>
+        <v>0.2287252624984241</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7111418626724454</v>
+        <v>-0.8513809778607062</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7149695786213316</v>
+        <v>0.823186687054231</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1256725756499584</v>
+        <v>0.4390193473896832</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8633843252998218</v>
+        <v>-0.3533590875536417</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8630423969422123</v>
+        <v>0.967594512079448</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8441993355373992</v>
+        <v>0.9590695861786038</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2198037842107127</v>
+        <v>0.9337296479411301</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7734694113270141</v>
+        <v>0.8013757501708385</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.6391439018258073</v>
+        <v>0.9136214298699663</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.518187085647384</v>
+        <v>0.5084778342776177</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3474325316881774</v>
+        <v>0.7976202488057107</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.7227504032664787</v>
+        <v>-0.9307375550866295</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8177456742082677</v>
+        <v>0.9875681437421366</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.7467349464438107</v>
+        <v>0.7648230166155432</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2657490114362527</v>
+        <v>0.9653262382901568</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.482155495184878</v>
+        <v>0.9646049973194972</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.8839996541928243</v>
+        <v>0.7205237617466641</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9360786865808135</v>
+        <v>-0.7313089896119852</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.961320998085175</v>
+        <v>0.4185662212759513</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.8418364529539532</v>
+        <v>-0.1375678616778277</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7056426544036155</v>
+        <v>0.8648213350736046</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9233692635303238</v>
+        <v>0.9677587333502262</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.342247558262078</v>
+        <v>0.3893203939752275</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8859074230757636</v>
+        <v>0.8878769380266389</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9266221400023804</v>
+        <v>0.9518221723103892</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9916495759716093</v>
+        <v>0.9013664936225617</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.6813410406561281</v>
+        <v>0.8574204056850246</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9599777793830453</v>
+        <v>0.9194820857097061</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9571443388909071</v>
+        <v>-0.9740189364064756</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6090635676049588</v>
+        <v>0.9360906447347481</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7629684491611362</v>
+        <v>0.2242357475179075</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.1858125422598946</v>
+        <v>0.8079855883153697</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2387121735177055</v>
+        <v>-0.8869456162273315</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.7634312246688573</v>
+        <v>-0.9168747297083133</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9458223922894279</v>
+        <v>-0.9259703560374956</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.3402850275874161</v>
+        <v>0.7919884480787176</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.870246773684949</v>
+        <v>0.8048979244419097</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9351402252785377</v>
+        <v>0.864181749995065</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8818509577507557</v>
+        <v>0.6837697513463737</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8357393937967821</v>
+        <v>0.3911172895345361</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8978295740390919</v>
+        <v>0.162225263384162</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9646255024937282</v>
+        <v>-0.3526607551241313</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9333065941256805</v>
+        <v>0.3794941226618392</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2618230954626867</v>
+        <v>0.8784206788155939</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.511881009267422</v>
+        <v>0.3516679632279868</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8804028267188609</v>
+        <v>0.4592622965948492</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9243250565951326</v>
+        <v>-0.3613092779234805</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9212285612125947</v>
+        <v>0.8331573515977845</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7224747591835432</v>
+        <v>-0.5370263199816911</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7879385085009892</v>
+        <v>-0.3032377076477547</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7926609432255174</v>
+        <v>-0.580840215545838</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9456812797946368</v>
+        <v>0.1400836066801199</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6714878959855619</v>
+        <v>0.9396037817188277</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.5262566390555621</v>
+        <v>0.682505584384795</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.2681284189317505</v>
+        <v>-0.3808583365775007</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.324688308024598</v>
+        <v>-0.7886966058462322</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5759046755488291</v>
+        <v>0.9022044075206913</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8955629716304488</v>
+        <v>0.4271720833379776</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.3209042275658404</v>
+        <v>0.1990236607288124</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5613117322402228</v>
+        <v>0.7847061927424303</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.2291791156967948</v>
+        <v>0.9396037817188277</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8414982265970895</v>
+        <v>0.7190177106940822</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.4719546168932996</v>
+        <v>0.3052971414052246</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.112724505647476</v>
+        <v>0.7950556137046174</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4266294562018412</v>
+        <v>-0.7158819533229109</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.637110165784865</v>
+        <v>-0.1636618150101415</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4199741137470517</v>
+        <v>-0.4421386142602918</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.02464254219590741</v>
+        <v>0.7435294315759117</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9248279654464879</v>
+        <v>0.689911490669227</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.5755008169559462</v>
+        <v>0.6152191386016501</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2313912589287878</v>
+        <v>0.9055860683816638</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.7480827922803472</v>
+        <v>0.9205343067857354</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.9079838296909015</v>
+        <v>0.2393833840961659</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3882575933912782</v>
+        <v>0.8676670907282887</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8650967568871589</v>
+        <v>-0.8423217684555452</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.625929352830794</v>
+        <v>-0.2503369083094804</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.693799932037526</v>
+        <v>-0.1008976063578554</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9248279654464879</v>
+        <v>0.5018501099889494</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3212430218395334</v>
+        <v>0.9353803825316237</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8625360827144203</v>
+        <v>0.8941751657565</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.3109610226414061</v>
+        <v>-0.5784221089949081</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7791460284080433</v>
+        <v>-0.7403209678491496</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7944754782023076</v>
+        <v>-0.2503369083094805</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.05976104352969759</v>
+        <v>-0.2503369083094805</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.5563873049755581</v>
+        <v>0.8046692635221113</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.1770215526524306</v>
+        <v>0.7238250225099021</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.714671013976362</v>
+        <v>-0.2503369083094804</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8087719342900499</v>
+        <v>0.2428813416709961</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.6501785432262194</v>
+        <v>0.2715011169741302</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.532023686341449</v>
+        <v>0.6141665654467914</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.901633400716197</v>
+        <v>0.6956392376865749</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.833103877480352</v>
+        <v>-0.6633134027348309</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2277653567795658</v>
+        <v>0.8556843475937995</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8251428688190328</v>
+        <v>0.7481378051590947</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8153065137955476</v>
+        <v>-0.4857380783328741</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.2962112734551047</v>
+        <v>-0.7138418368803754</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.1516039602933578</v>
+        <v>0.2427489334301964</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4854862366154077</v>
+        <v>-0.1781386627700697</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.8752675442980059</v>
+        <v>0.2466484293963683</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7734463010544315</v>
+        <v>0.9696525538943473</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9213451869393433</v>
+        <v>-0.8323314147523988</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7586218288272034</v>
+        <v>0.309098478020668</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7167427593572818</v>
+        <v>-0.2223234721460675</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.2962112734551043</v>
+        <v>0.7761760498908828</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.2962112734551043</v>
+        <v>0.8435089990529644</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7967509079924177</v>
+        <v>-0.2081626279492622</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7298592012447634</v>
+        <v>-0.1863321363736088</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.2962112734551047</v>
+        <v>-0.3051410928652066</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1764615807713794</v>
+        <v>-0.1682465027330644</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4252032914600096</v>
+        <v>-0.7494646969159336</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5107168445760074</v>
+        <v>0.9574813037462161</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7965160454912047</v>
+        <v>-0.4135055708573139</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.647942962064879</v>
+        <v>0.5437200730404449</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8942850239658445</v>
+        <v>0.4211780110162733</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.866948692984137</v>
+        <v>0.8281612669246732</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8558784803423528</v>
+        <v>0.7518764989836209</v>
       </c>
       <c r="HY4" t="n">
-        <v>-0.09929235071151211</v>
+        <v>0.6413536397347328</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8981663527764087</v>
+        <v>-0.3098210065286782</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.721978881000325</v>
+        <v>-0.5323970940022626</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.523980884908536</v>
+        <v>-0.2864848426759109</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6050005647488643</v>
+        <v>-0.2835672280794975</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4334564165339003</v>
+        <v>-0.8355857297690851</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.06879277489297504</v>
+        <v>0.7463542766121006</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.3654468123092673</v>
+        <v>0.109637308544431</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9314981747121369</v>
+        <v>-0.7875716304035785</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7800729273877584</v>
+        <v>-0.5691481909584818</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4129638954359924</v>
+        <v>0.7463542766121006</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.5066346860201648</v>
+        <v>0.7320339633639523</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.2859777540144773</v>
+        <v>-0.474728538822762</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7115072510116119</v>
+        <v>0.343354266373967</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1362841232670922</v>
+        <v>-0.196092137307823</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.02785202554642638</v>
+        <v>-0.4553234834547072</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3276955509763488</v>
+        <v>0.94796469085137</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2005414297652935</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.824855353273683</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.8965003030938661</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4416538731213308</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.595253104963718</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.4862758826662039</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8392469903027674</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8150461095881918</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7962965769733944</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3726202278641957</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5466589735905413</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1004424803950791</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.2595121528908286</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7929344714979426</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7804578687651014</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.1985883894099484</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8678760237248615</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5353449710565414</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7804578687651014</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8067159933905012</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5430318291134475</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3133917254406931</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3481091919545174</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.3906528907318915</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9236734395228368</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.823048231883733</v>
+        <v>0.8258646661743799</v>
       </c>
     </row>
   </sheetData>
